--- a/data/spreadsheets/BookChapter.xlsx
+++ b/data/spreadsheets/BookChapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B932473A-0E55-434D-8CEB-CD812EFE771C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA06F6-A088-FB49-9385-3C72F428F1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="1560" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="340" yWindow="500" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -3304,6 +3304,12 @@
   <si>
     <t>BCH_029</t>
   </si>
+  <si>
+    <t>Authorship Resource</t>
+  </si>
+  <si>
+    <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
 </sst>
 </file>
 
@@ -3347,7 +3353,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3370,6 +3376,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3378,7 +3395,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3389,6 +3406,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3695,27 +3715,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="190.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="31.83203125" customWidth="1"/>
-    <col min="8" max="8" width="73.1640625" customWidth="1"/>
-    <col min="9" max="9" width="99.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="174.1640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="11" max="11" width="29.1640625" style="4" customWidth="1"/>
     <col min="12" max="12" width="38.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="47.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="147.6640625" style="4" customWidth="1"/>
-    <col min="15" max="15" width="147.1640625" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" customWidth="1"/>
+    <col min="16" max="16" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3761,8 +3782,11 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="5" t="s">
+        <v>318</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>289</v>
       </c>
@@ -3793,8 +3817,11 @@
       <c r="O2" t="s">
         <v>213</v>
       </c>
+      <c r="P2" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>290</v>
       </c>
@@ -3837,8 +3864,11 @@
       <c r="O3" t="s">
         <v>214</v>
       </c>
+      <c r="P3" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>291</v>
       </c>
@@ -3881,8 +3911,11 @@
       <c r="O4" t="s">
         <v>215</v>
       </c>
+      <c r="P4" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>292</v>
       </c>
@@ -3925,8 +3958,11 @@
       <c r="O5" t="s">
         <v>215</v>
       </c>
+      <c r="P5" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>293</v>
       </c>
@@ -3966,8 +4002,11 @@
       <c r="O6" t="s">
         <v>216</v>
       </c>
+      <c r="P6" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>294</v>
       </c>
@@ -4007,8 +4046,11 @@
       <c r="O7" t="s">
         <v>217</v>
       </c>
+      <c r="P7" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>295</v>
       </c>
@@ -4051,8 +4093,11 @@
       <c r="O8" t="s">
         <v>218</v>
       </c>
+      <c r="P8" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>296</v>
       </c>
@@ -4092,8 +4137,11 @@
       <c r="O9" t="s">
         <v>219</v>
       </c>
+      <c r="P9" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>297</v>
       </c>
@@ -4133,8 +4181,11 @@
       <c r="O10" t="s">
         <v>220</v>
       </c>
+      <c r="P10" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>298</v>
       </c>
@@ -4174,8 +4225,11 @@
       <c r="O11" t="s">
         <v>221</v>
       </c>
+      <c r="P11" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>299</v>
       </c>
@@ -4215,8 +4269,11 @@
       <c r="O12" t="s">
         <v>222</v>
       </c>
+      <c r="P12" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>300</v>
       </c>
@@ -4256,8 +4313,11 @@
       <c r="O13" t="s">
         <v>223</v>
       </c>
+      <c r="P13" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>301</v>
       </c>
@@ -4297,8 +4357,11 @@
       <c r="O14" t="s">
         <v>224</v>
       </c>
+      <c r="P14" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" ht="350" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -4332,8 +4395,11 @@
       <c r="O15" t="s">
         <v>225</v>
       </c>
+      <c r="P15" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" ht="304" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>303</v>
       </c>
@@ -4364,8 +4430,11 @@
       <c r="O16" t="s">
         <v>226</v>
       </c>
+      <c r="P16" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="17" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>304</v>
       </c>
@@ -4396,8 +4465,11 @@
       <c r="O17" t="s">
         <v>227</v>
       </c>
+      <c r="P17" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="18" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>305</v>
       </c>
@@ -4437,8 +4509,11 @@
       <c r="O18" t="s">
         <v>228</v>
       </c>
+      <c r="P18" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="19" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>306</v>
       </c>
@@ -4478,8 +4553,11 @@
       <c r="O19" t="s">
         <v>229</v>
       </c>
+      <c r="P19" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="20" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>307</v>
       </c>
@@ -4519,8 +4597,11 @@
       <c r="O20" t="s">
         <v>230</v>
       </c>
+      <c r="P20" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="21" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>308</v>
       </c>
@@ -4560,8 +4641,11 @@
       <c r="O21" t="s">
         <v>231</v>
       </c>
+      <c r="P21" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="22" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>309</v>
       </c>
@@ -4601,8 +4685,11 @@
       <c r="O22" t="s">
         <v>232</v>
       </c>
+      <c r="P22" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="23" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -4642,8 +4729,11 @@
       <c r="O23" t="s">
         <v>219</v>
       </c>
+      <c r="P23" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="24" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>311</v>
       </c>
@@ -4683,8 +4773,11 @@
       <c r="O24" t="s">
         <v>233</v>
       </c>
+      <c r="P24" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="25" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>312</v>
       </c>
@@ -4724,8 +4817,11 @@
       <c r="O25" t="s">
         <v>234</v>
       </c>
+      <c r="P25" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="26" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>313</v>
       </c>
@@ -4765,8 +4861,11 @@
       <c r="O26" t="s">
         <v>235</v>
       </c>
+      <c r="P26" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="27" spans="1:15" ht="112" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>314</v>
       </c>
@@ -4806,8 +4905,11 @@
       <c r="O27" t="s">
         <v>236</v>
       </c>
+      <c r="P27" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="28" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>315</v>
       </c>
@@ -4841,8 +4943,11 @@
       <c r="M28" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="P28" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="29" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>316</v>
       </c>
@@ -4882,8 +4987,11 @@
       <c r="O29" t="s">
         <v>237</v>
       </c>
+      <c r="P29" s="4" t="s">
+        <v>319</v>
+      </c>
     </row>
-    <row r="30" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>317</v>
       </c>
@@ -4910,6 +5018,9 @@
       </c>
       <c r="O30" t="s">
         <v>238</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>

--- a/data/spreadsheets/BookChapter.xlsx
+++ b/data/spreadsheets/BookChapter.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA06F6-A088-FB49-9385-3C72F428F1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DC0A2-297B-154E-AF54-9E52508E5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5280" yWindow="500" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$30</definedName>
+  </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -2843,9 +2846,6 @@
     <t>Fantasy, Identity, Time, Anxiety, Servitude, Domesticity, Chaos, Episodic, Dream-like</t>
   </si>
   <si>
-    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like</t>
-  </si>
-  <si>
     <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals</t>
   </si>
   <si>
@@ -2876,18 +2876,9 @@
     <t>Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Justice, Inverted Justice, Animals, Episodic, Dream-like</t>
   </si>
   <si>
-    <t>Identity</t>
-  </si>
-  <si>
     <t>Identity, Authority, Rules, Tyranny, Absurdity</t>
   </si>
   <si>
-    <t>Fantasy, Identity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Episodic, Dream-like</t>
-  </si>
-  <si>
-    <t>Adventure, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals</t>
-  </si>
-  <si>
     <t>Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Violence, Anger, Judgment, Domesticity, Chaos</t>
   </si>
   <si>
@@ -2907,12 +2898,6 @@
   </si>
   <si>
     <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals</t>
-  </si>
-  <si>
-    <t>Physical Growth, Personal Growth, Transformation, Self-discovery, Chaos, Madness, Confusion</t>
-  </si>
-  <si>
-    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Episodic, Dream-like</t>
   </si>
   <si>
     <t>Fantasy, Identity, Episodic, Dream-like</t>
@@ -3309,6 +3294,24 @@
   </si>
   <si>
     <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Domesticity, Animals, Episodic, Dream-like</t>
+  </si>
+  <si>
+    <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Confusion, Domesticity, Chaos, Animals</t>
+  </si>
+  <si>
+    <t>Fantasy, Identity, Time, Anxiety, Servitude, Chaos, Confusion, Justice, Inverted Justice, Episodic, Dream-like</t>
+  </si>
+  <si>
+    <t>Adventure, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Domesticity, Animals</t>
+  </si>
+  <si>
+    <t>Physical Growth, Personal Growth, Transformation, Self-discovery, Chaos, Confusion</t>
+  </si>
+  <si>
+    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Episodic, Dream-like</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3715,10 +3718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P30"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A4:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3736,7 +3740,7 @@
     <col min="16" max="16" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3783,12 +3787,12 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3797,13 +3801,13 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>153</v>
@@ -3815,15 +3819,15 @@
         <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3835,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -3853,24 +3857,24 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="O3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3882,7 +3886,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -3900,24 +3904,24 @@
         <v>121</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>160</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -3929,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -3947,24 +3951,24 @@
         <v>122</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="O5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -3976,7 +3980,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
         <v>60</v>
@@ -3991,24 +3995,24 @@
         <v>123</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>162</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4035,24 +4039,24 @@
         <v>124</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>163</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -4082,24 +4086,24 @@
         <v>125</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>164</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4111,7 +4115,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -4126,24 +4130,24 @@
         <v>126</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>165</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4155,7 +4159,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
@@ -4170,24 +4174,24 @@
         <v>127</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>166</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -4214,24 +4218,24 @@
         <v>128</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>167</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -4243,7 +4247,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -4264,18 +4268,18 @@
         <v>168</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -4287,7 +4291,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
@@ -4308,18 +4312,18 @@
         <v>169</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -4346,24 +4350,24 @@
         <v>130</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -4372,16 +4376,16 @@
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>154</v>
@@ -4389,19 +4393,16 @@
       <c r="M15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="O15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4410,13 +4411,13 @@
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>155</v>
@@ -4425,18 +4426,18 @@
         <v>172</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -4445,13 +4446,13 @@
         <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>156</v>
@@ -4460,18 +4461,18 @@
         <v>173</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="O17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -4483,13 +4484,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>108</v>
@@ -4504,18 +4505,18 @@
         <v>174</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="O18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -4527,13 +4528,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>109</v>
@@ -4548,18 +4549,18 @@
         <v>175</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -4571,13 +4572,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>110</v>
@@ -4586,24 +4587,24 @@
         <v>133</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>176</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4615,13 +4616,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>111</v>
@@ -4636,18 +4637,18 @@
         <v>177</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -4659,13 +4660,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>112</v>
@@ -4674,24 +4675,24 @@
         <v>135</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>178</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4709,7 +4710,7 @@
         <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>113</v>
@@ -4724,18 +4725,18 @@
         <v>179</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -4747,13 +4748,13 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
         <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>114</v>
@@ -4768,18 +4769,18 @@
         <v>180</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -4791,13 +4792,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>115</v>
@@ -4812,18 +4813,18 @@
         <v>181</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -4835,13 +4836,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
         <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>116</v>
@@ -4856,18 +4857,18 @@
         <v>182</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -4879,13 +4880,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>117</v>
@@ -4900,18 +4901,18 @@
         <v>183</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="380" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -4929,7 +4930,7 @@
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>118</v>
@@ -4944,12 +4945,12 @@
         <v>184</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -4967,7 +4968,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
@@ -4982,18 +4983,18 @@
         <v>185</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -5002,10 +5003,10 @@
         <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>157</v>
@@ -5014,16 +5015,57 @@
         <v>186</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:P30" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="13">
+      <filters>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <x14:filter val="Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Animals"/>
+            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Episodic, Dream-like"/>
+            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Episodic, Dream-like"/>
+            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
+            <x14:filter val="Fantasy, Identity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like"/>
+            <x14:filter val="Fantasy, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
+            <x14:filter val="Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals, Episodic, Dream-like"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Wisdom, Mystery, Reflection, Justice, Inverted Justice, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
+            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Madness, Confusion, Justice, Inverted Justice, Domesticity, Chaos, Animals"/>
+            <x14:filter val="Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Chaos, Animals"/>
+          </mc:Choice>
+          <mc:Fallback>
+            <filter val="Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Animals"/>
+            <filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Episodic, Dream-like"/>
+            <filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Episodic, Dream-like"/>
+            <filter val="Fantasy, Identity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like"/>
+            <filter val="Fantasy, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Wisdom, Mystery, Reflection, Justice, Inverted Justice, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
+            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Madness, Confusion, Justice, Inverted Justice, Domesticity, Chaos, Animals"/>
+          </mc:Fallback>
+        </mc:AlternateContent>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5056,5 +5098,6 @@
     <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/spreadsheets/BookChapter.xlsx
+++ b/data/spreadsheets/BookChapter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E61DC0A2-297B-154E-AF54-9E52508E5FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BABAB1-6CE3-B34E-91D3-F1021F4551E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="500" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29320" yWindow="500" windowWidth="46900" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3718,10 +3718,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A26" sqref="A4:A26"/>
     </sheetView>
   </sheetViews>
@@ -3790,7 +3789,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>283</v>
       </c>
@@ -3825,7 +3824,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>284</v>
       </c>
@@ -3919,7 +3918,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>286</v>
       </c>
@@ -4365,7 +4364,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -4400,7 +4399,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>297</v>
       </c>
@@ -4435,7 +4434,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>298</v>
       </c>
@@ -4470,7 +4469,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>299</v>
       </c>
@@ -4514,7 +4513,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>300</v>
       </c>
@@ -4866,7 +4865,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -4910,7 +4909,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="380" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>309</v>
       </c>
@@ -4948,7 +4947,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -4992,7 +4991,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="409.6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>311</v>
       </c>
@@ -5025,46 +5024,10 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:P30" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="13">
-      <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Animals"/>
-            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Episodic, Dream-like"/>
-            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Episodic, Dream-like"/>
-            <x14:filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
-            <x14:filter val="Fantasy, Identity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like"/>
-            <x14:filter val="Fantasy, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
-            <x14:filter val="Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals, Episodic, Dream-like"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Wisdom, Mystery, Reflection, Justice, Inverted Justice, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
-            <x14:filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Madness, Confusion, Justice, Inverted Justice, Domesticity, Chaos, Animals"/>
-            <x14:filter val="Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Chaos, Animals"/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Animals"/>
-            <filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Episodic, Dream-like"/>
-            <filter val="Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Episodic, Dream-like"/>
-            <filter val="Fantasy, Identity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like"/>
-            <filter val="Fantasy, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals, Episodic, Dream-like"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Domesticity, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Wisdom, Mystery, Reflection, Justice, Inverted Justice, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Animals"/>
-            <filter val="Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Time, Anxiety, Servitude, Madness, Confusion, Justice, Inverted Justice, Domesticity, Chaos, Animals"/>
-          </mc:Fallback>
-        </mc:AlternateContent>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:P30" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
   </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/data/spreadsheets/BookChapter.xlsx
+++ b/data/spreadsheets/BookChapter.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACBA06F6-A088-FB49-9385-3C72F428F1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BABAB1-6CE3-B34E-91D3-F1021F4551E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="500" windowWidth="70940" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29320" yWindow="500" windowWidth="46900" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$30</definedName>
+  </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="320">
   <si>
     <t>ID</t>
   </si>
@@ -2843,9 +2846,6 @@
     <t>Fantasy, Identity, Time, Anxiety, Servitude, Domesticity, Chaos, Episodic, Dream-like</t>
   </si>
   <si>
-    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals, Episodic, Dream-like</t>
-  </si>
-  <si>
     <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals</t>
   </si>
   <si>
@@ -2876,18 +2876,9 @@
     <t>Fantasy, Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Violence, Anger, Judgment, Justice, Inverted Justice, Animals, Episodic, Dream-like</t>
   </si>
   <si>
-    <t>Identity</t>
-  </si>
-  <si>
     <t>Identity, Authority, Rules, Tyranny, Absurdity</t>
   </si>
   <si>
-    <t>Fantasy, Identity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Justice, Inverted Justice, Episodic, Dream-like</t>
-  </si>
-  <si>
-    <t>Adventure, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Domesticity, Animals</t>
-  </si>
-  <si>
     <t>Adventure, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Violence, Anger, Judgment, Domesticity, Chaos</t>
   </si>
   <si>
@@ -2907,12 +2898,6 @@
   </si>
   <si>
     <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Logic, Paradoxes, Wordplay, Irony, Time, Anxiety, Servitude, Madness, Confusion, Domesticity, Chaos, Animals</t>
-  </si>
-  <si>
-    <t>Physical Growth, Personal Growth, Transformation, Self-discovery, Chaos, Madness, Confusion</t>
-  </si>
-  <si>
-    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Madness, Confusion, Episodic, Dream-like</t>
   </si>
   <si>
     <t>Fantasy, Identity, Episodic, Dream-like</t>
@@ -3309,6 +3294,24 @@
   </si>
   <si>
     <t>Noémi Villars-Amberg, Daniela Subotic</t>
+  </si>
+  <si>
+    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Domesticity, Animals, Episodic, Dream-like</t>
+  </si>
+  <si>
+    <t>Identity, Physical Growth, Personal Growth, Transformation, Self-discovery, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Confusion, Domesticity, Chaos, Animals</t>
+  </si>
+  <si>
+    <t>Fantasy, Identity, Time, Anxiety, Servitude, Chaos, Confusion, Justice, Inverted Justice, Episodic, Dream-like</t>
+  </si>
+  <si>
+    <t>Adventure, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Domesticity, Animals</t>
+  </si>
+  <si>
+    <t>Physical Growth, Personal Growth, Transformation, Self-discovery, Chaos, Confusion</t>
+  </si>
+  <si>
+    <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Episodic, Dream-like</t>
   </si>
 </sst>
 </file>
@@ -3407,7 +3410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3717,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P30"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A26" sqref="A4:A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3736,7 +3739,7 @@
     <col min="16" max="16" width="38.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3783,12 +3786,12 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3797,13 +3800,13 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>92</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>153</v>
@@ -3815,15 +3818,15 @@
         <v>187</v>
       </c>
       <c r="O2" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3835,7 +3838,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
@@ -3853,24 +3856,24 @@
         <v>120</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>159</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>188</v>
+        <v>314</v>
       </c>
       <c r="O3" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3882,7 +3885,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F4" t="s">
         <v>54</v>
@@ -3900,24 +3903,24 @@
         <v>121</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>160</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -3929,7 +3932,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F5" t="s">
         <v>55</v>
@@ -3947,24 +3950,24 @@
         <v>122</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>161</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>189</v>
+        <v>315</v>
       </c>
       <c r="O5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -3976,7 +3979,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G6" t="s">
         <v>60</v>
@@ -3991,24 +3994,24 @@
         <v>123</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>162</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4035,24 +4038,24 @@
         <v>124</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>163</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -4082,24 +4085,24 @@
         <v>125</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>164</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="O8" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4111,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="G9" t="s">
         <v>63</v>
@@ -4126,24 +4129,24 @@
         <v>126</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>165</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4155,7 +4158,7 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
@@ -4170,24 +4173,24 @@
         <v>127</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>166</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -4214,24 +4217,24 @@
         <v>128</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>167</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -4243,7 +4246,7 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="G12" t="s">
         <v>65</v>
@@ -4264,18 +4267,18 @@
         <v>168</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -4287,7 +4290,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="G13" t="s">
         <v>66</v>
@@ -4308,18 +4311,18 @@
         <v>169</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -4346,24 +4349,24 @@
         <v>130</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>170</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -4372,16 +4375,16 @@
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H15" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>105</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>154</v>
@@ -4389,19 +4392,16 @@
       <c r="M15" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="N15" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="O15" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4410,13 +4410,13 @@
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>155</v>
@@ -4425,18 +4425,18 @@
         <v>172</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O16" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -4445,13 +4445,13 @@
         <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>107</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>156</v>
@@ -4460,18 +4460,18 @@
         <v>173</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>201</v>
+        <v>316</v>
       </c>
       <c r="O17" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -4483,13 +4483,13 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="G18" t="s">
         <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>108</v>
@@ -4504,18 +4504,18 @@
         <v>174</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>202</v>
+        <v>317</v>
       </c>
       <c r="O18" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -4527,13 +4527,13 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="G19" t="s">
         <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>109</v>
@@ -4548,18 +4548,18 @@
         <v>175</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="O19" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -4571,13 +4571,13 @@
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G20" t="s">
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>110</v>
@@ -4586,24 +4586,24 @@
         <v>133</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>176</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="O20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4615,13 +4615,13 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="G21" t="s">
         <v>71</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>111</v>
@@ -4636,18 +4636,18 @@
         <v>177</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="O21" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -4659,13 +4659,13 @@
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>112</v>
@@ -4674,24 +4674,24 @@
         <v>135</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>178</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="O22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4709,7 +4709,7 @@
         <v>73</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>113</v>
@@ -4724,18 +4724,18 @@
         <v>179</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O23" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -4747,13 +4747,13 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="G24" t="s">
         <v>74</v>
       </c>
       <c r="H24" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>114</v>
@@ -4768,18 +4768,18 @@
         <v>180</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -4791,13 +4791,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
       </c>
       <c r="H25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>115</v>
@@ -4812,18 +4812,18 @@
         <v>181</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -4835,13 +4835,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G26" t="s">
         <v>76</v>
       </c>
       <c r="H26" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>116</v>
@@ -4856,18 +4856,18 @@
         <v>182</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O26" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -4879,13 +4879,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>77</v>
       </c>
       <c r="H27" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>117</v>
@@ -4900,18 +4900,18 @@
         <v>183</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>210</v>
+        <v>318</v>
       </c>
       <c r="O27" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -4929,7 +4929,7 @@
         <v>78</v>
       </c>
       <c r="H28" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>118</v>
@@ -4944,12 +4944,12 @@
         <v>184</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -4967,7 +4967,7 @@
         <v>79</v>
       </c>
       <c r="H29" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>119</v>
@@ -4982,18 +4982,18 @@
         <v>185</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>211</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -5002,10 +5002,10 @@
         <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>157</v>
@@ -5014,16 +5014,21 @@
         <v>186</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="O30" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P30" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P30">
+      <sortCondition ref="A1:A30"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5056,5 +5061,6 @@
     <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/spreadsheets/BookChapter.xlsx
+++ b/data/spreadsheets/BookChapter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/spreadsheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BABAB1-6CE3-B34E-91D3-F1021F4551E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1DB299-05BD-7441-B868-0CFC1CA69093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29320" yWindow="500" windowWidth="46900" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="140" yWindow="500" windowWidth="55500" windowHeight="30120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="336">
   <si>
     <t>ID</t>
   </si>
@@ -185,12 +185,6 @@
   </si>
   <si>
     <t>L_001, L_002</t>
-  </si>
-  <si>
-    <t>L_011</t>
-  </si>
-  <si>
-    <t>L_008</t>
   </si>
   <si>
     <t>L_014</t>
@@ -628,99 +622,6 @@
 “I won’t indeed!” said Alice, in a great hurry to change the subject of conversation. “Are you—are you fond—of—of dogs?” The Mouse did not answer, so Alice went on eagerly: “There is such a nice little dog near our house I should like to show you! A little bright-eyed terrier, you know, with oh, such long curly brown hair! And it’ll fetch things when you throw them, and it’ll sit up and beg for its dinner, and all sorts of things—I can’t remember half of them—and it belongs to a farmer, you know, and he says it’s so useful, it’s worth a hundred pounds! He says it kills all the rats and—oh dear!” cried Alice in a sorrowful tone, “I’m afraid I’ve offended it again!” For the Mouse was swimming away from her as hard as it could go, and making quite a commotion in the pool as it went.
 So she called softly after it, “Mouse dear! Do come back again, and we won’t talk about cats or dogs either, if you don’t like them!” When the Mouse heard this, it turned round and swam slowly back to her: its face was quite pale (with passion, Alice thought), and it said in a low trembling voice, “Let us get to the shore, and then I’ll tell you my history, and you’ll understand why it is I hate cats and dogs.”
 It was high time to go, for the pool was getting quite crowded with the birds and animals that had fallen into it: there were a Duck and a Dodo, a Lory and an Eaglet, and several other curious creatures. Alice led the way, and the whole party swam to the shore.</t>
-  </si>
-  <si>
-    <t>They were indeed a queer-looking party that assembled on the bank—the birds with draggled feathers, the animals with their fur clinging close to them, and all dripping wet, cross, and uncomfortable.
-The first question of course was, how to get dry again: they had a consultation about this, and after a few minutes it seemed quite natural to Alice to find herself talking familiarly with them, as if she had known them all her life. Indeed, she had quite a long argument with the Lory, who at last turned sulky, and would only say, “I am older than you, and must know better;” and this Alice would not allow without knowing how old it was, and, as the Lory positively refused to tell its age, there was no more to be said.
-At last the Mouse, who seemed to be a person of authority among them, called out, “Sit down, all of you, and listen to me! I’ll soon make you dry enough!” They all sat down at once, in a large ring, with the Mouse in the middle. Alice kept her eyes anxiously fixed on it, for she felt sure she would catch a bad cold if she did not get dry very soon.
-“Ahem!” said the Mouse with an important air, “are you all ready? This is the driest thing I know. Silence all round, if you please! ‘William the Conqueror, whose cause was favoured by the pope, was soon submitted to by the English, who wanted leaders, and had been of late much accustomed to usurpation and conquest. Edwin and Morcar, the earls of Mercia and Northumbria—’”
-“Ugh!” said the Lory, with a shiver.
-“I beg your pardon!” said the Mouse, frowning, but very politely: “Did you speak?”
-“Not I!” said the Lory hastily.
-“I thought you did,” said the Mouse. “—I proceed. ‘Edwin and Morcar, the earls of Mercia and Northumbria, declared for him: and even Stigand, the patriotic archbishop of Canterbury, found it advisable—’”
-“Found what?” said the Duck.
-“Found it,” the Mouse replied rather crossly: “of course you know what ‘it’ means.”
-“I know what ‘it’ means well enough, when I find a thing,” said the Duck: “it’s generally a frog or a worm. The question is, what did the archbishop find?”
-The Mouse did not notice this question, but hurriedly went on, “‘—found it advisable to go with Edgar Atheling to meet William and offer him the crown. William’s conduct at first was moderate. But the insolence of his Normans—’ How are you getting on now, my dear?” it continued, turning to Alice as it spoke.
-“As wet as ever,” said Alice in a melancholy tone: “it doesn’t seem to dry me at all.”
-“In that case,” said the Dodo solemnly, rising to its feet, “I move that the meeting adjourn, for the immediate adoption of more energetic remedies—”
-“Speak English!” said the Eaglet. “I don’t know the meaning of half those long words, and, what’s more, I don’t believe you do either!” And the Eaglet bent down its head to hide a smile: some of the other birds tittered audibly.
-“What I was going to say,” said the Dodo in an offended tone, “was, that the best thing to get us dry would be a Caucus-race.”
-“What is a Caucus-race?” said Alice; not that she wanted much to know, but the Dodo had paused as if it thought that somebody ought to speak, and no one else seemed inclined to say anything.
-“Why,” said the Dodo, “the best way to explain it is to do it.” (And, as you might like to try the thing yourself, some winter day, I will tell you how the Dodo managed it.)
-First it marked out a race-course, in a sort of circle, (“the exact shape doesn’t matter,” it said,) and then all the party were placed along the course, here and there. There was no “One, two, three, and away,” but they began running when they liked, and left off when they liked, so that it was not easy to know when the race was over. However, when they had been running half an hour or so, and were quite dry again, the Dodo suddenly called out “The race is over!” and they all crowded round it, panting, and asking, “But who has won?”
-This question the Dodo could not answer without a great deal of thought, and it sat for a long time with one finger pressed upon its forehead (the position in which you usually see Shakespeare, in the pictures of him), while the rest waited in silence. At last the Dodo said, “Everybody has won, and all must have prizes.”
-“But who is to give the prizes?” quite a chorus of voices asked.
-“Why, she, of course,” said the Dodo, pointing to Alice with one finger; and the whole party at once crowded round her, calling out in a confused way, “Prizes! Prizes!”
-Alice had no idea what to do, and in despair she put her hand in her pocket, and pulled out a box of comfits, (luckily the salt water had not got into it), and handed them round as prizes. There was exactly one a-piece, all round.
-“But she must have a prize herself, you know,” said the Mouse.
-“Of course,” the Dodo replied very gravely. “What else have you got in your pocket?” he went on, turning to Alice.
-“Only a thimble,” said Alice sadly.
-“Hand it over here,” said the Dodo.
-Then they all crowded round her once more, while the Dodo solemnly presented the thimble, saying “We beg your acceptance of this elegant thimble;” and, when it had finished this short speech, they all cheered.
-Alice thought the whole thing very absurd, but they all looked so grave that she did not dare to laugh; and, as she could not think of anything to say, she simply bowed, and took the thimble, looking as solemn as she could.
-The next thing was to eat the comfits: this caused some noise and confusion, as the large birds complained that they could not taste theirs, and the small ones choked and had to be patted on the back. However, it was over at last, and they sat down again in a ring, and begged the Mouse to tell them something more.
-“You promised to tell me your history, you know,” said Alice, “and why it is you hate—C and D,” she added in a whisper, half afraid that it would be offended again.
-“Mine is a long and a sad tale!” said the Mouse, turning to Alice, and sighing.
-“It is a long tail, certainly,” said Alice, looking down with wonder at the Mouse’s tail; “but why do you call it sad?” And she kept on puzzling about it while the Mouse was speaking, so that her idea of the tale was something like this:—
-“Fury said to a
-mouse, That he
-met in the
-house,
-‘Let us
-both go to
-law: I will
-prosecute
-YOU. —Come,
-I’ll take no
-denial; We
-must have a
-trial: For
-really this
-morning I’ve
-nothing
-to do.’
-Said the
-mouse to the
-cur, ‘Such
-a trial,
-dear Sir,
-With
-no jury
-or judge,
-would be
-wasting
-our
-breath.’
-‘I’ll be
-judge, I’ll
-be jury,’
-Said
-cunning
-old Fury:
-‘I’ll
-try the
-whole
-cause,
-and
-condemn
-you
-to
-death.’”
-“You are not attending!” said the Mouse to Alice severely. “What are you thinking of?”
-“I beg your pardon,” said Alice very humbly: “you had got to the fifth bend, I think?”
-“I had not!” cried the Mouse, sharply and very angrily.
-“A knot!” said Alice, always ready to make herself useful, and looking anxiously about her. “Oh, do let me help to undo it!”
-“I shall do nothing of the sort,” said the Mouse, getting up and walking away. “You insult me by talking such nonsense!”
-“I didn’t mean it!” pleaded poor Alice. “But you’re so easily offended, you know!”
-The Mouse only growled in reply.
-“Please come back and finish your story!” Alice called after it; and the others all joined in chorus, “Yes, please do!” but the Mouse only shook its head impatiently, and walked a little quicker.
-“What a pity it wouldn’t stay!” sighed the Lory, as soon as it was quite out of sight; and an old Crab took the opportunity of saying to her daughter “Ah, my dear! Let this be a lesson to you never to lose your temper!” “Hold your tongue, Ma!” said the young Crab, a little snappishly. “You’re enough to try the patience of an oyster!”
-“I wish I had our Dinah here, I know I do!” said Alice aloud, addressing nobody in particular. “She’d soon fetch it back!”
-“And who is Dinah, if I might venture to ask the question?” said the Lory.
-Alice replied eagerly, for she was always ready to talk about her pet: “Dinah’s our cat. And she’s such a capital one for catching mice you can’t think! And oh, I wish you could see her after the birds! Why, she’ll eat a little bird as soon as look at it!”
-This speech caused a remarkable sensation among the party. Some of the birds hurried off at once: one old Magpie began wrapping itself up very carefully, remarking, “I really must be getting home; the night-air doesn’t suit my throat!” and a Canary called out in a trembling voice to its children, “Come away, my dears! It’s high time you were all in bed!” On various pretexts they all moved off, and Alice was soon left alone.
-“I wish I hadn’t mentioned Dinah!” she said to herself in a melancholy tone. “Nobody seems to like her, down here, and I’m sure she’s the best cat in the world! Oh, my dear Dinah! I wonder if I shall ever see you any more!” And here poor Alice began to cry again, for she felt very lonely and low-spirited. In a little while, however, she again heard a little pattering of footsteps in the distance, and she looked up eagerly, half hoping that the Mouse had changed his mind, and was coming back to finish his story.</t>
   </si>
   <si>
     <t>It was the White Rabbit, trotting slowly back again, and looking anxiously about as it went, as if it had lost something; and she heard it muttering to itself “The Duchess! The Duchess! Oh my dear paws! Oh my fur and whiskers! She’ll get me executed, as sure as ferrets are ferrets! Where can I have dropped them, I wonder?” Alice guessed in a moment that it was looking for the fan and the pair of white kid gloves, and she very good-naturedly began hunting about for them, but they were nowhere to be seen—everything seemed to have changed since her swim in the pool, and the great hall, with the glass table and the little door, had vanished completely.
@@ -3191,12 +3092,6 @@
 She starts crying, but then she sees a small glass box under the table. On the box is a cake with the words 'Eat me' written on it. She hopes that eating the cake will make her grow or shrink too, so she eats it.</t>
   </si>
   <si>
-    <t>Alice grows and grows until she's as big as the ceiling.Now she can get the key from the table, but she's too big to fit through the door, so she cries and makes a big puddle on the floor.The White Rabbit comes back, looking really nice and carrying a pair of white kid gloves and a big fan. Alice asks the rabbit for help, but the rabbit is so scared that he drops the gloves and fan and runs away.Alice picks them up and starts fanning herself while she wonders what has made this day so different from every other.She decides that she must have been changed into another girl in the night, as she can't remember her multiplication tables or geography correctly and isn't able to recite a poem properly.</t>
-  </si>
-  <si>
-    <t>The fanning makes her shrink again until she's only two feet tall.She tries to get in, but the door's still locked and the key's still lying on the table.Then she slips and falls into her own pool of tears.She meets a mouse who fell in too, but she scares him when she starts talking about her cat Dinah and a dog. He says he'll tell her why he hates cats and dogs, and they swim to the shore, taking other creatures that fell into the pool with them.</t>
-  </si>
-  <si>
     <t>A_24</t>
   </si>
   <si>
@@ -3312,13 +3207,127 @@
   </si>
   <si>
     <t>Fantasy, Surrealism, Imagination, Contradiction, Fluidity of Space, Identity, Authority, Rules, Tyranny, Absurdity, Time, Anxiety, Servitude, Chaos, Confusion, Episodic, Dream-like</t>
+  </si>
+  <si>
+    <t>L_004</t>
+  </si>
+  <si>
+    <t>L_005</t>
+  </si>
+  <si>
+    <t>L_011, L_008</t>
+  </si>
+  <si>
+    <t>They were indeed a queer-looking party that assembled on the bank—the birds with draggled feathers, the animals with their fur clinging close to them, and all dripping wet, cross, and uncomfortable.
+The first question of course was, how to get dry again: they had a consultation about this, and after a few minutes it seemed quite natural to Alice to find herself talking familiarly with them, as if she had known them all her life. Indeed, she had quite a long argument with the Lory, who at last turned sulky, and would only say, “I am older than you, and must know better;” and this Alice would not allow without knowing how old it was, and, as the Lory positively refused to tell its age, there was no more to be said.
+At last the Mouse, who seemed to be a person of authority among them, called out, “Sit down, all of you, and listen to me! I’ll soon make you dry enough!” They all sat down at once, in a large ring, with the Mouse in the middle. Alice kept her eyes anxiously fixed on it, for she felt sure she would catch a bad cold if she did not get dry very soon.
+“Ahem!” said the Mouse with an important air, “are you all ready? This is the driest thing I know. Silence all round, if you please! ‘William the Conqueror, whose cause was favoured by the pope, was soon submitted to by the English, who wanted leaders, and had been of late much accustomed to usurpation and conquest. Edwin and Morcar, the earls of Mercia and Northumbria—’”
+“Ugh!” said the Lory, with a shiver.
+“I beg your pardon!” said the Mouse, frowning, but very politely: “Did you speak?”
+“Not I!” said the Lory hastily.
+“I thought you did,” said the Mouse. “—I proceed. ‘Edwin and Morcar, the earls of Mercia and Northumbria, declared for him: and even Stigand, the patriotic archbishop of Canterbury, found it advisable—’”
+“Found what?” said the Duck.
+“Found it,” the Mouse replied rather crossly: “of course you know what ‘it’ means.”
+“I know what ‘it’ means well enough, when I find a thing,” said the Duck: “it’s generally a frog or a worm. The question is, what did the archbishop find?”
+The Mouse did not notice this question, but hurriedly went on, “‘—found it advisable to go with Edgar Atheling to meet William and offer him the crown. William’s conduct at first was moderate. But the insolence of his Normans—’ How are you getting on now, my dear?” it continued, turning to Alice as it spoke.
+“As wet as ever,” said Alice in a melancholy tone: “it doesn’t seem to dry me at all.”
+“In that case,” said the Dodo solemnly, rising to its feet, “I move that the meeting adjourn, for the immediate adoption of more energetic remedies—”
+“Speak English!” said the Eaglet. “I don’t know the meaning of half those long words, and, what’s more, I don’t believe you do either!” And the Eaglet bent down its head to hide a smile: some of the other birds tittered audibly.
+“What I was going to say,” said the Dodo in an offended tone, “was, that the best thing to get us dry would be a Caucus-race.”
+“What is a Caucus-race?” said Alice; not that she wanted much to know, but the Dodo had paused as if it thought that somebody ought to speak, and no one else seemed inclined to say anything.
+“Why,” said the Dodo, “the best way to explain it is to do it.” (And, as you might like to try the thing yourself, some winter day, I will tell you how the Dodo managed it.)
+First it marked out a race-course, in a sort of circle, (“the exact shape doesn’t matter,” it said,) and then all the party were placed along the course, here and there. There was no “One, two, three, and away,” but they began running when they liked, and left off when they liked, so that it was not easy to know when the race was over. However, when they had been running half an hour or so, and were quite dry again, the Dodo suddenly called out “The race is over!” and they all crowded round it, panting, and asking, “But who has won?”
+This question the Dodo could not answer without a great deal of thought, and it sat for a long time with one finger pressed upon its forehead (the position in which you usually see Shakespeare, in the pictures of him), while the rest waited in silence. At last the Dodo said, “Everybody has won, and all must have prizes.”
+“But who is to give the prizes?” quite a chorus of voices asked.
+“Why, she, of course,” said the Dodo, pointing to Alice with one finger; and the whole party at once crowded round her, calling out in a confused way, “Prizes! Prizes!”
+Alice had no idea what to do, and in despair she put her hand in her pocket, and pulled out a box of comfits, (luckily the salt water had not got into it), and handed them round as prizes. There was exactly one a-piece, all round.
+“But she must have a prize herself, you know,” said the Mouse.
+“Of course,” the Dodo replied very gravely. “What else have you got in your pocket?” he went on, turning to Alice.
+“Only a thimble,” said Alice sadly.
+“Hand it over here,” said the Dodo.
+Then they all crowded round her once more, while the Dodo solemnly presented the thimble, saying “We beg your acceptance of this elegant thimble;” and, when it had finished this short speech, they all cheered.
+Alice thought the whole thing very absurd, but they all looked so grave that she did not dare to laugh; and, as she could not think of anything to say, she simply bowed, and took the thimble, looking as solemn as she could.
+The next thing was to eat the comfits: this caused some noise and confusion, as the large birds complained that they could not taste theirs, and the small ones choked and had to be patted on the back. However, it was over at last, and they sat down again in a ring, and begged the Mouse to tell them something more.
+“You promised to tell me your history, you know,” said Alice, “and why it is you hate—C and D,” she added in a whisper, half afraid that it would be offended again.
+“Mine is a long and a sad tale!” said the Mouse, turning to Alice, and sighing.
+“It is a long tail, certainly,” said Alice, looking down with wonder at the Mouse’s tail; “but why do you call it sad?” And she kept on puzzling about it while the Mouse was speaking, so that her idea of the tale was something like this:—
+“Fury said to a mouse, That he met in the house, ‘Let us both go to law: I will prosecute YOU. —Come, I’ll take no denial; We must have a trial: For really this morning I’ve nothing to do.’ Said the mouse to the cur, ‘Such a trial, dear Sir, With no jury or judge, would be wasting our breath.’ ‘I’ll be judge, I’ll be jury,’ Said cunning old Fury: ‘I’ll try the whole cause, and condemn you to death.’”
+“You are not attending!” said the Mouse to Alice severely. “What are you thinking of?”
+“I beg your pardon,” said Alice very humbly: “you had got to the fifth bend, I think?”
+“I had not!” cried the Mouse, sharply and very angrily.
+“A knot!” said Alice, always ready to make herself useful, and looking anxiously about her. “Oh, do let me help to undo it!”
+“I shall do nothing of the sort,” said the Mouse, getting up and walking away. “You insult me by talking such nonsense!”
+“I didn’t mean it!” pleaded poor Alice. “But you’re so easily offended, you know!”
+The Mouse only growled in reply.
+“Please come back and finish your story!” Alice called after it; and the others all joined in chorus, “Yes, please do!” but the Mouse only shook its head impatiently, and walked a little quicker.
+“What a pity it wouldn’t stay!” sighed the Lory, as soon as it was quite out of sight; and an old Crab took the opportunity of saying to her daughter “Ah, my dear! Let this be a lesson to you never to lose your temper!” “Hold your tongue, Ma!” said the young Crab, a little snappishly. “You’re enough to try the patience of an oyster!”
+“I wish I had our Dinah here, I know I do!” said Alice aloud, addressing nobody in particular. “She’d soon fetch it back!”
+“And who is Dinah, if I might venture to ask the question?” said the Lory.
+Alice replied eagerly, for she was always ready to talk about her pet: “Dinah’s our cat. And she’s such a capital one for catching mice you can’t think! And oh, I wish you could see her after the birds! Why, she’ll eat a little bird as soon as look at it!”
+This speech caused a remarkable sensation among the party. Some of the birds hurried off at once: one old Magpie began wrapping itself up very carefully, remarking, “I really must be getting home; the night-air doesn’t suit my throat!” and a Canary called out in a trembling voice to its children, “Come away, my dears! It’s high time you were all in bed!” On various pretexts they all moved off, and Alice was soon left alone.
+“I wish I hadn’t mentioned Dinah!” she said to herself in a melancholy tone. “Nobody seems to like her, down here, and I’m sure she’s the best cat in the world! Oh, my dear Dinah! I wonder if I shall ever see you any more!” And here poor Alice began to cry again, for she felt very lonely and low-spirited. In a little while, however, she again heard a little pattering of footsteps in the distance, and she looked up eagerly, half hoping that the Mouse had changed his mind, and was coming back to finish his story.</t>
+  </si>
+  <si>
+    <t>Alice grows and grows until she's as big as the ceiling.Now she can get the key from the table, but she's too big to fit through the door, so she cries and makes a big puddle on the floor.The White Rabbit comes back, looking really nice and carrying a pair of white kid gloves and a big fan. Alice asks the rabbit for help, but the rabbit is so scared that he drops the gloves and fan and runs away.Alice picks them up and starts fanning herself while she wonders what has made this day so different from every other.She decides that she must have been changed into another girl in the night, as she can't remember her multiplication tables or geography correctly and isn't able to recite a poem properly.
+The fanning makes her shrink again until she's only two feet tall. 
+She tries to get in, but the door's still locked and the key's still lying on the table.
+Then she slips and falls into her own pool of tears.She meets a mouse who fell in too, but she scares him when she starts talking about her cat Dinah and a dog. 
+He says he'll tell her why he hates cats and dogs, and they swim to the shore, taking other creatures that fell into the pool with them.</t>
+  </si>
+  <si>
+    <t>L_007</t>
+  </si>
+  <si>
+    <t>L_013</t>
+  </si>
+  <si>
+    <t>L_006, L_016</t>
+  </si>
+  <si>
+    <t>L_018</t>
+  </si>
+  <si>
+    <t>L_016, L_001</t>
+  </si>
+  <si>
+    <t>L_009, L_010, L_023, L_019</t>
+  </si>
+  <si>
+    <t>L_003, L_020, L_021</t>
+  </si>
+  <si>
+    <t>L_017</t>
+  </si>
+  <si>
+    <t>L_012, L_024</t>
+  </si>
+  <si>
+    <t>L_026</t>
+  </si>
+  <si>
+    <t>L_028</t>
+  </si>
+  <si>
+    <t>L_029</t>
+  </si>
+  <si>
+    <t>L_032</t>
+  </si>
+  <si>
+    <t>L_025, L_027</t>
+  </si>
+  <si>
+    <t>L_032, L_030, L_031</t>
+  </si>
+  <si>
+    <t>L_019</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3347,13 +3356,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -3398,7 +3427,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3412,6 +3441,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3720,20 +3761,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A26" sqref="A4:A26"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="17.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
     <col min="8" max="8" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
     <col min="11" max="11" width="29.1640625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="38.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="47.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="4.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="99.6640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="34.83203125" style="4" customWidth="1"/>
     <col min="15" max="15" width="16.83203125" customWidth="1"/>
     <col min="16" max="16" width="38.5" customWidth="1"/>
@@ -3786,12 +3828,12 @@
         <v>14</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -3800,33 +3842,33 @@
         <v>44</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
@@ -3838,42 +3880,42 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="O3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -3884,43 +3926,43 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>279</v>
+      <c r="E4" s="8" t="s">
+        <v>319</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>317</v>
       </c>
       <c r="G4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="O4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -3931,43 +3973,43 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
+      <c r="E5" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>161</v>
+        <v>318</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="O5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
         <v>19</v>
@@ -3978,40 +4020,43 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>280</v>
+      <c r="E6" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -4025,37 +4070,40 @@
       <c r="E7" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -4069,40 +4117,40 @@
       <c r="E8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
+      <c r="F8" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B9" t="s">
         <v>22</v>
@@ -4114,39 +4162,42 @@
         <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="G9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -4158,39 +4209,42 @@
         <v>8</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O10" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -4204,37 +4258,40 @@
       <c r="E11" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="O11" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -4246,39 +4303,42 @@
         <v>10</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="G12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -4290,39 +4350,42 @@
         <v>11</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="O13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -4336,37 +4399,40 @@
       <c r="E14" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="F14" s="7" t="s">
+        <v>324</v>
+      </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="O14" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B15" t="s">
         <v>28</v>
@@ -4375,33 +4441,33 @@
         <v>45</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B16" t="s">
         <v>29</v>
@@ -4410,33 +4476,33 @@
         <v>45</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P16" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B17" t="s">
         <v>30</v>
@@ -4445,33 +4511,33 @@
         <v>45</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="O17" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P17" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -4483,39 +4549,42 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>325</v>
       </c>
       <c r="G18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H18" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J18" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="O18" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P18" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
@@ -4527,39 +4596,42 @@
         <v>2</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M19" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B20" t="s">
         <v>33</v>
@@ -4571,39 +4643,42 @@
         <v>3</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>327</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="O20" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P20" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B21" t="s">
         <v>34</v>
@@ -4615,39 +4690,42 @@
         <v>4</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>329</v>
       </c>
       <c r="G21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J21" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M21" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="O21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P21" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
@@ -4659,39 +4737,42 @@
         <v>5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O22" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="P22" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
@@ -4705,37 +4786,40 @@
       <c r="E23" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="F23" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="G23" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="O23" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P23" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
@@ -4747,39 +4831,42 @@
         <v>7</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>331</v>
       </c>
       <c r="G24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J24" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="O24" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="P24" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -4791,39 +4878,42 @@
         <v>8</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>258</v>
+        <v>255</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>334</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H25" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="O25" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="P25" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B26" t="s">
         <v>39</v>
@@ -4835,39 +4925,42 @@
         <v>9</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="G26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P26" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
@@ -4879,39 +4972,42 @@
         <v>10</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="O27" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P27" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="380" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s">
         <v>41</v>
@@ -4925,31 +5021,34 @@
       <c r="E28" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="F28" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="G28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J28" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
@@ -4963,37 +5062,40 @@
       <c r="E29" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="F29" s="9" t="s">
+        <v>335</v>
+      </c>
       <c r="G29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J29" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="O29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -5002,25 +5104,25 @@
         <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
